--- a/csv_files/testy.xlsx
+++ b/csv_files/testy.xlsx
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +628,10 @@
         <f t="shared" ref="P3:P7" si="0">L3/F3</f>
         <v>100</v>
       </c>
+      <c r="Q3">
+        <f>N3-N2/2</f>
+        <v>-1.5</v>
+      </c>
       <c r="R3">
         <v>5000</v>
       </c>
@@ -784,6 +788,10 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="Q6">
+        <f>N6-N2/2</f>
+        <v>-1.3500000000003638</v>
+      </c>
       <c r="R6">
         <v>35000</v>
       </c>
@@ -844,6 +852,12 @@
       </c>
       <c r="R7">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f>Q7+Q6+Q3</f>
+        <v>-7.6333333333341216</v>
       </c>
     </row>
   </sheetData>
